--- a/InterviewTest/output/230193/230193_failed.xlsx
+++ b/InterviewTest/output/230193/230193_failed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230193\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5DEE13-72FF-4F01-8F3D-60A645B785FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D03F65-C51C-4C5C-8D67-31029615997C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <t>null</t>
   </si>
   <si>
-    <t>Example:  ANH_CH: 7.8</t>
+    <t>Example:  ANH_CH: 10.6</t>
   </si>
   <si>
     <t>Fail</t>

--- a/InterviewTest/output/230193/230193_failed.xlsx
+++ b/InterviewTest/output/230193/230193_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230193\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230193\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D03F65-C51C-4C5C-8D67-31029615997C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3B3A9D-16B7-46CB-BF77-AC3780A061DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>39489</v>
+        <v>39754</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" customHeight="1" thickBot="1">

--- a/InterviewTest/output/230193/230193_failed.xlsx
+++ b/InterviewTest/output/230193/230193_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230193\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230193\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3B3A9D-16B7-46CB-BF77-AC3780A061DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406408A8-3D2A-40E8-8BFC-374B6CD95912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="390" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
